--- a/Warehouse/AF/judgement_logs_run4o.xlsx
+++ b/Warehouse/AF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The decision on which movie to show on Friday ended without a clear choice.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on which movie to show.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The rights for both movies have been successfully acquired. The committee has decided to show both movies.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie was not reached, resulting in no movie being acquired for Friday.
+MSG: The decision-making process concluded without a selection for Friday's movie, so no action will be taken in this instance.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has not been made, so I've recorded the outcome accordingly.
+MSG: The decision has been recorded as "no decision" about the movie for Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the showing on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no selection for Friday's movie.
+MSG: The decision about which movie to show on Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that the committee did not come to an agreement on a movie selection for Friday.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been executed, indicating that the committee did not reach an agreement on what movie to show on Friday.
+MSG: The decision regarding the movie to be shown on Friday has ended without an agreement, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been made.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and it indicates that no movie was selected for Friday's showing.
+MSG: The decision regarding which movie to show on Friday resulted in no selection.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie can be made.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement among the committee members.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has been recorded as no decision.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired. "Barbie" and "Oppenheimer" will be shown on Friday.
+MSG: The conversation ended without a plan about what movie to play on Friday, so no decision can be made.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The decision regarding the movie for Friday has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision regarding the movie for Friday has resulted in no specific choice being made.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded, and no specific movie was selected for Friday's screening.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process regarding the movie for Friday resulted in no decision being made.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement. The conversation did not lead to a definitive choice.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached on the movie to be shown on Friday.
+MSG: The decision has been recorded as "no_decision," indicating that no consensus was reached regarding a movie for Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday’s screening.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been finalized.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the screening.
+MSG: The decision has been recorded to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they were both agreed upon for showing in their entirety.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired as per the committee's decision.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision process resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to both movies has been recorded.
+MSG: The decision has been made to not acquire any movie for Friday at this time, as the committee did not reach a conclusion.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie has been recorded as no decision.
+MSG: The decision process has concluded without reaching an agreement on which movie to screen on Friday.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no consensus was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired.
+MSG: The decision has been recorded for acquiring the rights to both movies.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a definitive choice of a movie for Friday.
+MSG: The decision has been recorded as no decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday’s movie.
+MSG: The decision regarding which movie to show on Friday has resulted in no conclusive agreement.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has not been made, and there is no agreement on which film to show.
+MSG: The decision has been recorded, indicating that no movie was selected for showing on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to the movie "Barbie" have been successfully acquired.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded as "no_decision." The committee did not reach an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without an agreement on a movie for Friday, so no movie will be acquired.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not made, resulting in no selection.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection was made for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie has not been made, so no selection will be recorded.
+MSG: The decision about Friday's movie was not reached, so no action has been taken.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired, as per the committee's decision to showcase both "Barbie" and "Oppenheimer."
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has not been made.
+MSG: The decision resulted in no choice being made for Friday's movie.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made.
+MSG: It seems there was no decision made regarding the movie to be shown on Friday, so I will record that as the outcome.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision results in no movie being selected for Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been executed, indicating that no decision was made regarding the movie to show on Friday.
+MSG: The decision concluded with no movie being selected.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process for selecting a movie has concluded without arriving at a choice.
+MSG: The decision process has concluded without agreement on a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding which movie to play on Friday.
+MSG: The decision regarding which movie to show on Friday has not been made, resulting in no acquisition of rights for either movie.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for Friday's movie showing.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to "Barbie" for Friday's showing.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision resulted in no agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be selected for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no determination made regarding which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has not been made, and the conversation ended without a clear choice.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not result in a definite decision about which movie to show, so the appropriate function was called, and no movie rights were acquired.
+MSG: The decision about the movie to be shown on Friday was not made, as the committee did not arrive at a conclusion.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday remains unresolved.
+MSG: The decision regarding the movie to be shown on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie for Friday was not made.
+MSG: The committee did not make a decision on which movie to show on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/AF/judgement_logs_run4o.xlsx
+++ b/Warehouse/AF/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;52;41.json</t>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;54;35.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday ended without a clear choice.
+MSG: The decision regarding which movie to show on Friday has been recorded as no decision being made.
 </t>
         </is>
       </c>
@@ -478,13 +478,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;07;07.json</t>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;29;43.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision about which movie to show on Friday was not made, as no agreement was reached in the discussion.
 </t>
         </is>
       </c>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;28;35.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;52;41.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired. The committee has decided to show both movies.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;44;01.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_18;56;03.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a selection for Friday's movie, so no action will be taken in this instance.
+MSG: The decision regarding the movie to be shown on Friday has ended without an agreement.
 </t>
         </is>
       </c>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;59;09.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;07;07.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" about the movie for Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;38;06.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;28;35.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;31;43.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;44;01.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has been recorded as "no decision."
+MSG: The decision has been recorded, and no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;37;22.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;59;09.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;25;53.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;38;06.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The rights to both movies have been acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;42;23.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;31;43.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has ended without an agreement, resulting in no decision being made.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;21;50.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_18;57;31.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;55;04.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;37;22.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday resulted in no selection.
+MSG: The decision to acquire a movie for Friday could not be reached, so there will be no movie selected at this time.
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;02;16.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;25;53.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no agreement among the committee members.
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for screening on Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -742,19 +742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;23;10.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_18;54;07.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been successfully recorded, and the movie "Oppenheimer" will be shown.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;41;41.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;42;23.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding which movie to show on Friday could not be made, resulting in no selection.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;39;08.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_14;48;49.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a plan about what movie to play on Friday, so no decision can be made.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;45;14.json</t>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;26;05.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has been recorded as no decision.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;43;41.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_18;58;23.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has resulted in no specific choice being made.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;57;47.json</t>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;30;45.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;21;09.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;21;50.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no specific movie was selected for Friday's screening.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;24;48.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;55;04.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no agreement. The conversation did not lead to a definitive choice.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;30;05.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;02;16.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision," indicating that no consensus was reached regarding a movie for Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;56;13.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_14;51;57.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday’s screening.
+MSG: The decision was made that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;43;06.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;23;10.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been finalized.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -984,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;16;45.json</t>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_19;00;39.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they were both agreed upon for showing in their entirety.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;03;19.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;41;41.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;23;56.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;39;08.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;58;21.json</t>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;32;45.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process resulted in no movie being selected for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;17;51.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;45;14.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to not acquire any movie for Friday at this time, as the committee did not reach a conclusion.
+MSG: The decision has been recorded as "no_decision," meaning there was no agreement on the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;35;32.json</t>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;28;34.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision about which movie to show on Friday ended without reaching a conclusion, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;42;48.json</t>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;57;14.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;53;58.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;43;41.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without reaching an agreement on which movie to screen on Friday.
+MSG: The committee did not reach a decision on which movie to show on Friday, so there is no choice to acquire.
 </t>
         </is>
       </c>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;06;05.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;57;47.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;26;51.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;21;09.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;00;10.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_18;54;51.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision was made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;20;29.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;24;48.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded for acquiring the rights to both movies.
+MSG: The decision to show a movie on Friday has not been finalized, resulting in no clear choice.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;21;20.json</t>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;52;59.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding which movie to show on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday as the committee reached no agreement.
 </t>
         </is>
       </c>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;44;39.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;30;05.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no conclusive agreement.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;40;33.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;56;13.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for showing on Friday.
+MSG: No decision has been made about the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;40;52.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;43;06.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;17;34.json</t>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;51;25.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision." The committee did not reach an agreement on which movie to show on Friday.
+MSG: The decision made is that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;26;08.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;16;45.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;26;48.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_19;02;00.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision has been made to acquire the rights to "Barbie" for the assembly on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;38;09.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;03;19.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;18;26.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;23;56.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie was not reached, so no action has been taken.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;18;52.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;58;21.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision-making process did not lead to a selection for Friday's movie, so there is no movie acquisition.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;34;34.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;17;51.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no choice being made for Friday's movie.
+MSG: The decision outcome has been recorded as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
@@ -1490,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;19;30.json</t>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;33;39.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems there was no decision made regarding the movie to be shown on Friday, so I will record that as the outcome.
+MSG: The decision has been recorded as no selection was made for Friday's movie.
 </t>
         </is>
       </c>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;33;48.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;35;32.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;39;46.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;42;48.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision concluded with no movie being selected.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;27;50.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;53;58.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;09;07.json</t>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;31;38.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without agreement on a movie for Friday, resulting in no decision being made.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1600,19 +1600,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;08;02.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;06;05.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has not been made, resulting in no acquisition of rights for either movie.
+MSG: The decision to acquire the rights for the movie "Barbie" has been made.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;05;07.json</t>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;59;03.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;32;40.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;26;51.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making committee could not reach a consensus on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;36;36.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;00;10.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;10;21.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;20;29.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired for Friday's showing.
+MSG: The decision to acquire the rights for both movies "Barbie" and "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1710,13 +1710,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;51;07.json</t>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;27;29.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement about which movie to show on Friday.
+MSG: The decision process has concluded without a clear agreement on which movie to show.
 </t>
         </is>
       </c>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;41;20.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;21;20.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision has been recorded as "no_decision."
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1754,13 +1754,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;16;36.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;44;39.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision regarding which movie to show on Friday could not be made, as the discussion ended without a clear choice.
 </t>
         </is>
       </c>
@@ -1776,13 +1776,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;04;21.json</t>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;40;33.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made, and the conversation ended without a clear choice.
+MSG: The decision about which movie to show on Friday was not made, and therefore, the committee has not reached an agreement.
 </t>
         </is>
       </c>
@@ -1798,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;49;35.json</t>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_18;53;15.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to be shown on Friday was not made, as the committee did not arrive at a conclusion.
+MSG: The decision has been recorded as "no_decision." The committee did not reach a consensus on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1820,19 +1820,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;47;14.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;40;52.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;44;41.json</t>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;17;34.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has not been made.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1864,17 +1864,765 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_18;59;21.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding what movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;26;08.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie was selected during the discussion.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;26;48.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;38;09.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;18;26.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision being made about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_28_2025 at_11;18;52.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;55;30.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been made.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;56;22.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have chosen to acquire the rights for "Barbie" as it was selected by the committee for the screening on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;34;34.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;19;30.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without selecting a movie for Friday, resulting in no decision.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;33;48.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no decision reached regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;39;46.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;27;50.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;09;07.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday resulted in no consensus, leading to no selection being made.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;08;02.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday could not be made, resulting in no further action.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_14;50;38.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;05;07.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for the screening on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_19;00;11.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will both be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;26;48.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;32;40.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;36;36.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights to the movie "Barbie" have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;10;21.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday has not been made, so the outcome is recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;51;07.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function for no decision has been executed, indicating that no agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_14;49;53.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;41;20.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies will be acquired for the committee's planned screening.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;52;20.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not result in a consensus, so no decision about the movie can be made.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;16;36.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been noted as no decision about Friday’s movie could be made.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_11;04;21.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday has been recorded as no_decision.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;49;35.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision about which movie to show on Friday, so no further actions will be taken at this time.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_05_01_2025 at_10;47;14.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies, "Barbie" and "Oppenheimer," have been successfully acquired for the committee's event.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_16_2025 at_10;34;32.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as having no agreement on which movie to show.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;44;41.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no consensus reached for the movie selection.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_11_2025 at_18;52;34.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>./Warehouse/AF/run4o_discovery_04_29_2025 at_13;22;51.json</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The committee did not make a decision on which movie to show on Friday.
-</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding Friday's movie was not finalized, so I have recorded a no-decision outcome.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/AF/run4o_08_12_2025 at_18;53;51.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since the committee ended the conversation without making a decision about which movie to play on Friday, I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
